--- a/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-6,82; 3,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 15,14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 4,03</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 9,6</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 2,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,52; 10,48</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-16,71%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>72,15%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-13,65%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,68%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-47,53; 34,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 154,25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-45,22; 32,91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 83,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,57; 17,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,96; 91,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 9,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 9,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 9,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 7,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 10,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 1,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 8,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 3,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,48; 112,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 111,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 108,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,27; 47,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 67,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; 11,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,33; 58,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,83; 68,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,59; 30,75</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 10,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 6,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 14,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 9,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; 2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 9,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 8,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 2,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 10,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 95,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; 64,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,5; 131,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,92; 55,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,63; 14,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,01; 57,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 56,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,54; 17,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,13; 73,45</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 6,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 9,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 12,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 7,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 9,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 6,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 5,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 7,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 8,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,87%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,12; 58,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 82,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,71; 117,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 48,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,19; 58,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; 42,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 42,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 53,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 60,65</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 13,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 8,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 15,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 21,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 14,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,0; 19,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 14,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 9,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,1; 17,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,2%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,41%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 219,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,3; 142,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,76; 266,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,85; 253,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 180,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,85; 235,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,78; 183,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 113,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,18; 219,65</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 14,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; 3,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 18,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 10,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 4,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 9,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 10,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 2,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,26; 12,68</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,44%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,23%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 111,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,91; 30,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,19; 153,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,27; 68,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,73; 23,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; 60,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,12; 65,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,49; 12,25</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,22; 84,74</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 8,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 4,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 8,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 8,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,58; -0,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 39,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 7,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 0,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 27,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,85%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,67%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,36%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 65,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; 33,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 65,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 56,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,41; -1,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 220,81</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 46,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,15; 6,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,23; 185,97</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 5,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 7,98</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 8,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 7,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 9,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,25; 12,46</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 5,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 7,53</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 9,79</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,7%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; 58,73</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,73; 79,45</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,5; 86,43</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 61,55</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,06; 82,24</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,93; 107,95</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 46,55</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,83; 67,18</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,23; 86,63</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 5,72</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 8,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 6,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 13,93</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,49</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 2,99</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 11,35</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,18%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,86; 48,05</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 31,9</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,01; 71,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 38,66</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 18,49</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,22; 83,6</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,51; 38,89</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 21,44</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,01; 76,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>5,49</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,06; 5,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 15,14</t>
+          <t>0,97; 13,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 6,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 9,6</t>
+          <t>-2,57; 8,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 4,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,48</t>
+          <t>1,3; 9,38</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>40,72%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,11; 53,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 154,25</t>
+          <t>4,77; 133,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,38; 60,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 83,15</t>
+          <t>-13,09; 76,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,15; 40,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,96; 91,7</t>
+          <t>8,02; 80,16</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,72</t>
+          <t>-0,14; 8,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 1,62</t>
+          <t>-7,19; 1,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,98</t>
+          <t>-2,52; 3,44</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>-16,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 108,0</t>
+          <t>-0,9; 98,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 11,29</t>
+          <t>-34,76; 7,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 30,75</t>
+          <t>-15,46; 27,55</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,21</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 14,03</t>
+          <t>2,75; 13,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 9,7</t>
+          <t>-1,46; 9,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 10,61</t>
+          <t>1,91; 9,99</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>59,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>37,16%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,5; 131,38</t>
+          <t>13,68; 124,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 57,59</t>
+          <t>-6,52; 55,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 73,45</t>
+          <t>10,02; 69,08</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>2,61</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,37</t>
+          <t>-0,63; 10,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,72</t>
+          <t>1,17; 12,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,41</t>
+          <t>0,79; 12,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,78</t>
+          <t>-9,19; 4,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,71</t>
+          <t>1,49; 9,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,46</t>
+          <t>-2,75; 6,71</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>50,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>16,53%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 58,02</t>
+          <t>-4,56; 99,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,71; 117,68</t>
+          <t>6,65; 114,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 48,41</t>
+          <t>3,89; 80,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 42,79</t>
+          <t>-41,56; 29,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 42,51</t>
+          <t>8,28; 70,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 60,65</t>
+          <t>-15,72; 46,12</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>14,51</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>12,67</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,63; 15,87</t>
+          <t>3,7; 15,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,0; 19,61</t>
+          <t>8,34; 19,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,1; 17,1</t>
+          <t>8,17; 17,19</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>116,2%</t>
+          <t>116,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>119,2%</t>
+          <t>121,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>120,41%</t>
+          <t>121,5%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>27,76; 266,64</t>
+          <t>28,06; 266,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>48,85; 235,93</t>
+          <t>50,05; 238,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>58,18; 219,65</t>
+          <t>59,3; 220,79</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,72</t>
+          <t>5,3; 18,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 9,13</t>
+          <t>-2,42; 9,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,26; 12,68</t>
+          <t>4,0; 12,5</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>46,03%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,19; 153,78</t>
+          <t>25,63; 149,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 60,25</t>
+          <t>-10,81; 60,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,22; 84,74</t>
+          <t>19,99; 82,97</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>20,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>13,36</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,13</t>
+          <t>-1,05; 7,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 39,26</t>
+          <t>-0,48; 52,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,67; 27,8</t>
+          <t>1,17; 39,87</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>109,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>80,74%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 65,09</t>
+          <t>-5,4; 58,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 220,81</t>
+          <t>-2,87; 304,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,23; 185,97</t>
+          <t>6,54; 266,1</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>4,78</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,81</t>
+          <t>-6,47; 7,72</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,46</t>
+          <t>5,55; 12,64</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,79</t>
+          <t>-2,58; 8,55</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>38,2%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>8,5; 86,43</t>
+          <t>-50,25; 68,1</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>32,93; 107,95</t>
+          <t>34,85; 108,75</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>30,23; 86,63</t>
+          <t>-14,35; 71,37</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>6,62</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,43</t>
+          <t>0,77; 7,1</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,93</t>
+          <t>2,76; 20,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,35</t>
+          <t>3,52; 14,62</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>45,12%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>36,01; 71,57</t>
+          <t>6,61; 59,33</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>20,22; 83,6</t>
+          <t>16,34; 126,51</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>32,01; 76,32</t>
+          <t>23,93; 99,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 5,26</t>
+          <t>-6,12; 5,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,24</t>
+          <t>-7,47; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 13,29</t>
+          <t>1,36; 13,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 6,96</t>
+          <t>-5,37; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 4,03</t>
+          <t>-8,1; 4,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 8,78</t>
+          <t>-1,9; 8,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,82</t>
+          <t>-3,94; 4,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 2,02</t>
+          <t>-5,83; 1,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 9,38</t>
+          <t>1,44; 9,37</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 53,78</t>
+          <t>-39,64; 53,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 34,11</t>
+          <t>-49,85; 38,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 133,3</t>
+          <t>8,35; 135,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 60,24</t>
+          <t>-30,78; 61,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 32,91</t>
+          <t>-45,32; 35,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 76,73</t>
+          <t>-10,65; 76,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 40,91</t>
+          <t>-25,33; 38,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,57; 17,75</t>
+          <t>-38,67; 17,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 80,16</t>
+          <t>8,29; 80,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,98</t>
+          <t>0,68; 9,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,76</t>
+          <t>1,06; 9,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,97</t>
+          <t>0,11; 9,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,37</t>
+          <t>-2,18; 7,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 10,46</t>
+          <t>-0,57; 10,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,26</t>
+          <t>-7,1; 1,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,37</t>
+          <t>0,53; 7,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,88</t>
+          <t>1,39; 8,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,44</t>
+          <t>-2,18; 3,67</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 112,73</t>
+          <t>5,04; 111,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 111,15</t>
+          <t>8,49; 110,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 98,6</t>
+          <t>-1,56; 98,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 47,91</t>
+          <t>-11,36; 48,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 67,67</t>
+          <t>-3,1; 64,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 7,95</t>
+          <t>-34,5; 9,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 58,01</t>
+          <t>3,21; 56,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 68,92</t>
+          <t>8,62; 66,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 27,55</t>
+          <t>-13,76; 29,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 10,19</t>
+          <t>-1,32; 10,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 6,95</t>
+          <t>-3,04; 7,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 13,35</t>
+          <t>2,83; 13,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 9,06</t>
+          <t>-3,61; 9,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 2,0</t>
+          <t>-10,87; 1,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 9,3</t>
+          <t>-1,14; 9,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,43</t>
+          <t>-0,51; 8,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,7</t>
+          <t>-5,02; 2,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,99</t>
+          <t>2,24; 10,61</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 95,58</t>
+          <t>-8,66; 90,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 64,71</t>
+          <t>-20,01; 66,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,68; 124,71</t>
+          <t>17,66; 116,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 55,59</t>
+          <t>-17,38; 55,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 14,16</t>
+          <t>-47,47; 10,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 55,33</t>
+          <t>-4,94; 59,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 56,61</t>
+          <t>-2,8; 59,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 17,81</t>
+          <t>-26,72; 17,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 69,08</t>
+          <t>10,58; 73,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,46</t>
+          <t>-0,39; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,0</t>
+          <t>-1,12; 9,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 12,3</t>
+          <t>1,0; 12,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 12,35</t>
+          <t>1,03; 12,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 9,44</t>
+          <t>-3,06; 8,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 4,9</t>
+          <t>-8,66; 4,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,74</t>
+          <t>1,86; 9,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,36</t>
+          <t>-0,79; 7,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,71</t>
+          <t>-3,07; 6,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 99,46</t>
+          <t>-3,12; 92,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 82,24</t>
+          <t>-8,15; 82,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 114,13</t>
+          <t>5,69; 107,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,89; 80,67</t>
+          <t>4,84; 84,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 58,42</t>
+          <t>-14,38; 57,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 29,48</t>
+          <t>-45,0; 29,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,28; 70,74</t>
+          <t>10,31; 69,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 53,01</t>
+          <t>-3,96; 52,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 46,12</t>
+          <t>-16,39; 48,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 13,2</t>
+          <t>0,67; 13,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 8,75</t>
+          <t>-3,59; 8,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,7; 15,87</t>
+          <t>4,96; 16,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,06; 21,58</t>
+          <t>6,52; 21,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 14,32</t>
+          <t>-0,19; 14,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,34; 19,91</t>
+          <t>8,32; 20,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,55; 14,91</t>
+          <t>5,52; 15,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 9,27</t>
+          <t>-0,26; 9,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,17; 17,19</t>
+          <t>8,26; 16,5</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,24; 219,58</t>
+          <t>1,74; 208,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 142,74</t>
+          <t>-33,82; 119,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>28,06; 266,87</t>
+          <t>37,35; 265,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41,85; 253,16</t>
+          <t>39,93; 253,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,07; 180,99</t>
+          <t>-3,06; 165,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>50,05; 238,61</t>
+          <t>50,26; 245,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,78; 183,18</t>
+          <t>38,93; 184,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,06; 113,49</t>
+          <t>-2,98; 105,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>59,3; 220,79</t>
+          <t>61,73; 209,06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,67; 14,02</t>
+          <t>0,81; 14,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 3,89</t>
+          <t>-7,91; 3,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,3; 18,2</t>
+          <t>6,08; 18,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 10,5</t>
+          <t>-3,31; 10,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,07</t>
+          <t>-9,23; 4,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,28</t>
+          <t>-1,06; 10,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 10,28</t>
+          <t>0,96; 10,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,0</t>
+          <t>-7,05; 1,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,5</t>
+          <t>3,13; 12,03</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,01; 111,77</t>
+          <t>3,58; 112,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 30,27</t>
+          <t>-42,75; 31,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,63; 149,3</t>
+          <t>31,25; 150,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 68,01</t>
+          <t>-14,63; 66,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 23,32</t>
+          <t>-40,38; 26,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 60,35</t>
+          <t>-4,7; 67,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,12; 65,89</t>
+          <t>4,66; 70,77</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 12,25</t>
+          <t>-36,01; 10,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>19,99; 82,97</t>
+          <t>16,33; 79,87</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,26</t>
+          <t>-0,31; 8,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,3</t>
+          <t>-3,64; 4,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 7,29</t>
+          <t>-0,97; 7,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,99</t>
+          <t>-0,11; 8,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,58; -0,24</t>
+          <t>-8,48; -0,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 52,67</t>
+          <t>-0,3; 49,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,13</t>
+          <t>0,83; 6,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,87</t>
+          <t>-4,7; 0,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 39,87</t>
+          <t>1,23; 40,57</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 65,55</t>
+          <t>-1,62; 68,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 33,58</t>
+          <t>-21,92; 38,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 58,71</t>
+          <t>-6,35; 59,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 56,19</t>
+          <t>-0,68; 52,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -1,42</t>
+          <t>-40,69; -3,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 304,67</t>
+          <t>-2,16; 325,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,55; 46,5</t>
+          <t>4,02; 45,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 6,4</t>
+          <t>-26,98; 5,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>6,54; 266,1</t>
+          <t>6,45; 255,56</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,85</t>
+          <t>-1,03; 5,81</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,98</t>
+          <t>1,06; 8,17</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 7,72</t>
+          <t>-6,73; 7,99</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,06</t>
+          <t>-0,66; 6,83</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,34; 9,39</t>
+          <t>1,48; 9,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,55; 12,64</t>
+          <t>5,59; 12,69</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,31</t>
+          <t>0,59; 5,43</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,53</t>
+          <t>2,32; 7,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 8,55</t>
+          <t>-2,48; 8,56</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 58,73</t>
+          <t>-7,85; 58,07</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5,73; 79,45</t>
+          <t>7,43; 81,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 68,1</t>
+          <t>-51,84; 72,39</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 61,55</t>
+          <t>-4,7; 58,26</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,06; 82,24</t>
+          <t>8,3; 77,72</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>34,85; 108,75</t>
+          <t>36,94; 113,66</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>1,66; 46,55</t>
+          <t>3,62; 46,04</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>15,83; 67,18</t>
+          <t>16,44; 65,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 71,37</t>
+          <t>-16,58; 70,54</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,72</t>
+          <t>2,23; 5,78</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,78</t>
+          <t>0,63; 3,95</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,1</t>
+          <t>1,01; 7,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,18</t>
+          <t>2,51; 6,17</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,9</t>
+          <t>-0,83; 2,84</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,76; 20,4</t>
+          <t>2,9; 22,26</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,49</t>
+          <t>2,87; 5,4</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,99</t>
+          <t>0,37; 2,99</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,62</t>
+          <t>3,66; 15,42</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>16,86; 48,05</t>
+          <t>16,44; 48,97</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>3,62; 31,9</t>
+          <t>4,64; 33,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,61; 59,33</t>
+          <t>9,22; 60,54</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>12,75; 38,66</t>
+          <t>14,19; 39,59</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 18,49</t>
+          <t>-4,63; 18,31</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>16,34; 126,51</t>
+          <t>17,27; 129,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,51; 38,89</t>
+          <t>18,59; 38,31</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>2,18; 21,44</t>
+          <t>2,54; 21,34</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>23,93; 99,97</t>
+          <t>24,12; 103,79</t>
         </is>
       </c>
     </row>
